--- a/bank statement generator/bank_statements/statement_83.xlsx
+++ b/bank statement generator/bank_statements/statement_83.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 09.07.2024</t>
+          <t>KONTOSTAND AM 13.03.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,110 +759,110 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>10.07.</t>
+          <t>14.03.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>11.07.</t>
+          <t>15.03.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 5030065</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>86,78-</t>
+          <t>54,03-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>13.07.</t>
+          <t>18.03.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>14.07.</t>
+          <t>19.03.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>26,57-</t>
+          <t>56,87-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>14.07.</t>
+          <t>19.03.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>15.07.</t>
+          <t>20.03.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 65386143</t>
+          <t>PAYPAL SJTQOM</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>39,64-</t>
+          <t>5,70-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>15.07.</t>
+          <t>21.03.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>16.07.</t>
+          <t>22.03.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-25668205</t>
+          <t>RECHNUNG VODAFONE GMBH 69197396</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>56,49-</t>
+          <t>38,83-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>19.07.</t>
+          <t>23.03.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>20.07.</t>
+          <t>24.03.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG JET TANKSTELLE</t>
+          <t>MCDONALDS Sebnitz</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>84,68-</t>
+          <t>44,00-</t>
         </is>
       </c>
     </row>
@@ -877,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 22.07.2024</t>
+          <t>KONTOSTAND AM 28.03.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>294,16-</t>
+          <t>199,43-</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 31.07.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 06.04.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
